--- a/seleniumproject/src/test/resources/testdata.xlsx
+++ b/seleniumproject/src/test/resources/testdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{1696A50C-C1BF-43D7-A770-8523BFDEAE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{080AF838-9710-43C7-AEC1-FBDBACE2D4EB}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{1696A50C-C1BF-43D7-A770-8523BFDEAE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D1A9A60-03D7-47DE-89E3-F76356222364}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,8 +90,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -125,9 +133,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,16 +454,16 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -490,7 +499,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
